--- a/Documents/Tetrises.xlsx
+++ b/Documents/Tetrises.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,12 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,7 +1102,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,9 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,6 +1151,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1604,7 +1604,7 @@
       <c r="AO4" s="148"/>
     </row>
     <row r="5" spans="2:58" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y5" s="170" t="s">
+      <c r="Y5" s="169" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="148" t="s">
@@ -1655,7 +1655,7 @@
       <c r="N6" s="110"/>
       <c r="O6" s="111"/>
       <c r="P6" s="112"/>
-      <c r="Y6" s="170"/>
+      <c r="Y6" s="169"/>
       <c r="Z6" s="148" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="O7" s="133"/>
       <c r="P7" s="118"/>
-      <c r="Y7" s="170"/>
+      <c r="Y7" s="169"/>
       <c r="Z7" s="148" t="s">
         <v>10</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="P8" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="170"/>
+      <c r="Y8" s="169"/>
       <c r="Z8" s="148" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="AK8" s="148"/>
     </row>
     <row r="9" spans="2:58" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y9" s="170" t="s">
+      <c r="Y9" s="169" t="s">
         <v>27</v>
       </c>
       <c r="Z9" s="148" t="s">
@@ -1825,7 +1825,7 @@
       <c r="P10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="Y10" s="170"/>
+      <c r="Y10" s="169"/>
       <c r="Z10" s="148" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O11" s="133"/>
       <c r="P11" s="118"/>
-      <c r="Y11" s="170"/>
+      <c r="Y11" s="169"/>
       <c r="Z11" s="148" t="s">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="N12" s="140"/>
       <c r="O12" s="142"/>
       <c r="P12" s="124"/>
-      <c r="Y12" s="170"/>
+      <c r="Y12" s="169"/>
       <c r="Z12" s="148" t="s">
         <v>32</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
     </row>
     <row r="13" spans="2:58" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y13" s="170" t="s">
+      <c r="Y13" s="169" t="s">
         <v>28</v>
       </c>
       <c r="Z13" s="148" t="s">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="O14" s="111"/>
       <c r="P14" s="112"/>
-      <c r="Y14" s="170"/>
+      <c r="Y14" s="169"/>
       <c r="Z14" s="148" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>36</v>
       </c>
       <c r="P15" s="118"/>
-      <c r="Y15" s="170"/>
+      <c r="Y15" s="169"/>
       <c r="Z15" s="148" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>35</v>
       </c>
       <c r="P16" s="124"/>
-      <c r="Y16" s="170"/>
+      <c r="Y16" s="169"/>
       <c r="Z16" s="148" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="AK16" s="148"/>
     </row>
     <row r="17" spans="1:37" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y17" s="170" t="s">
+      <c r="Y17" s="169" t="s">
         <v>29</v>
       </c>
       <c r="Z17" s="148" t="s">
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="112"/>
-      <c r="Y18" s="170"/>
+      <c r="Y18" s="169"/>
       <c r="Z18" s="148" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="118"/>
-      <c r="Y19" s="170"/>
+      <c r="Y19" s="169"/>
       <c r="Z19" s="148" t="s">
         <v>2</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="O20" s="142"/>
       <c r="P20" s="124"/>
-      <c r="Y20" s="170"/>
+      <c r="Y20" s="169"/>
       <c r="Z20" s="148" t="s">
         <v>32</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="AK20" s="148"/>
     </row>
     <row r="21" spans="1:37" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y21" s="170" t="s">
+      <c r="Y21" s="169" t="s">
         <v>30</v>
       </c>
       <c r="Z21" s="148" t="s">
@@ -2336,7 +2336,7 @@
       <c r="P22" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="Y22" s="170"/>
+      <c r="Y22" s="169"/>
       <c r="Z22" s="148" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="P23" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="Y23" s="170"/>
+      <c r="Y23" s="169"/>
       <c r="Z23" s="148" t="s">
         <v>10</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="P24" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="Y24" s="170"/>
+      <c r="Y24" s="169"/>
       <c r="Z24" s="148" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="AK24" s="148"/>
     </row>
     <row r="25" spans="1:37" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y25" s="170" t="s">
+      <c r="Y25" s="169" t="s">
         <v>39</v>
       </c>
       <c r="Z25" s="148" t="s">
@@ -2483,7 +2483,7 @@
       <c r="K26" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="Y26" s="170"/>
+      <c r="Y26" s="169"/>
       <c r="Z26" s="148" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="V27" s="145"/>
       <c r="W27" s="145"/>
       <c r="X27" s="145"/>
-      <c r="Y27" s="170"/>
+      <c r="Y27" s="169"/>
       <c r="Z27" s="148" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="V28" s="145"/>
       <c r="W28" s="145"/>
       <c r="X28" s="145"/>
-      <c r="Y28" s="170"/>
+      <c r="Y28" s="169"/>
       <c r="Z28" s="148" t="s">
         <v>8</v>
       </c>
@@ -3966,12 +3966,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y5:Y8"/>
     <mergeCell ref="Y25:Y28"/>
     <mergeCell ref="Y21:Y24"/>
     <mergeCell ref="Y17:Y20"/>
     <mergeCell ref="Y13:Y16"/>
     <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="Y5:Y8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3983,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4006,13 +4006,13 @@
       <c r="E2" s="163">
         <v>3</v>
       </c>
-      <c r="F2" s="163">
+      <c r="F2" s="170">
         <v>4</v>
       </c>
-      <c r="G2" s="163">
+      <c r="G2" s="170">
         <v>5</v>
       </c>
-      <c r="H2" s="163">
+      <c r="H2" s="170">
         <v>6</v>
       </c>
       <c r="I2" s="163">
@@ -4024,7 +4024,7 @@
       <c r="K2" s="156">
         <v>9</v>
       </c>
-      <c r="M2" s="166" t="s">
+      <c r="M2" s="165" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4038,16 +4038,16 @@
       <c r="D3" s="158">
         <v>12</v>
       </c>
-      <c r="E3" s="164">
+      <c r="E3" s="171">
         <v>13</v>
       </c>
-      <c r="F3" s="164">
+      <c r="F3" s="171">
         <v>14</v>
       </c>
-      <c r="G3" s="164">
+      <c r="G3" s="171">
         <v>15</v>
       </c>
-      <c r="H3" s="164">
+      <c r="H3" s="171">
         <v>16</v>
       </c>
       <c r="I3" s="164">
@@ -4059,7 +4059,7 @@
       <c r="K3" s="159">
         <v>19</v>
       </c>
-      <c r="M3" s="167" t="s">
+      <c r="M3" s="166" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4076,10 +4076,10 @@
       <c r="E4" s="164">
         <v>23</v>
       </c>
-      <c r="F4" s="165">
+      <c r="F4" s="171">
         <v>24</v>
       </c>
-      <c r="G4" s="164">
+      <c r="G4" s="172">
         <v>25</v>
       </c>
       <c r="H4" s="164">
@@ -4094,7 +4094,7 @@
       <c r="K4" s="159">
         <v>29</v>
       </c>
-      <c r="M4" s="168" t="s">
+      <c r="M4" s="167" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4111,10 +4111,10 @@
       <c r="E5" s="164">
         <v>33</v>
       </c>
-      <c r="F5" s="165">
+      <c r="F5" s="172">
         <v>34</v>
       </c>
-      <c r="G5" s="164">
+      <c r="G5" s="172">
         <v>35</v>
       </c>
       <c r="H5" s="164">
@@ -4129,7 +4129,7 @@
       <c r="K5" s="159">
         <v>39</v>
       </c>
-      <c r="M5" s="169" t="s">
+      <c r="M5" s="168" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4146,10 +4146,10 @@
       <c r="E6" s="164">
         <v>43</v>
       </c>
-      <c r="F6" s="165">
+      <c r="F6" s="172">
         <v>44</v>
       </c>
-      <c r="G6" s="165">
+      <c r="G6" s="172">
         <v>45</v>
       </c>
       <c r="H6" s="164">
@@ -4181,7 +4181,7 @@
       <c r="F7" s="164">
         <v>54</v>
       </c>
-      <c r="G7" s="164">
+      <c r="G7" s="172">
         <v>55</v>
       </c>
       <c r="H7" s="164">
@@ -22443,7 +22443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BP66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CF46" sqref="CF46"/>
     </sheetView>
   </sheetViews>
